--- a/comp130-schedule-5-14-2025.xlsx
+++ b/comp130-schedule-5-14-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\git\comp130-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE21E8-BFC6-4B38-96A4-05E66EA94939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2DB6A-B7B9-4D34-83E2-13B7729210EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9555" yWindow="0" windowWidth="19350" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>recursion</t>
   </si>
   <si>
-    <t>fruitful functions II</t>
-  </si>
-  <si>
     <t>lab topic</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
   </si>
   <si>
     <t>final written exam, 9am-12pm</t>
-  </si>
-  <si>
-    <t>3.9-3.12 (and review 3.1-3.8)</t>
   </si>
   <si>
     <r>
@@ -472,18 +466,6 @@
   </si>
   <si>
     <t>review</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the IDLE debugger; stack diagrams; fruitful functions I</t>
-    </r>
   </si>
   <si>
     <r>
@@ -551,27 +533,15 @@
     <t>6.1-6.4</t>
   </si>
   <si>
-    <t>6.5-6.11</t>
-  </si>
-  <si>
     <t>7.1-7.4</t>
   </si>
   <si>
-    <t>7.5-7.9</t>
-  </si>
-  <si>
-    <t>recursion with fruitful functions</t>
-  </si>
-  <si>
     <t>iteration with while loops</t>
   </si>
   <si>
     <t>debugging overview</t>
   </si>
   <si>
-    <t>1.7, 2.8, 3.12, 4.10, 5.12, 6.9, 7.7</t>
-  </si>
-  <si>
     <t>revisiting algorithms</t>
   </si>
   <si>
@@ -584,30 +554,12 @@
     <t>SSG17-18</t>
   </si>
   <si>
-    <t>8.1-8.6, SSG19</t>
-  </si>
-  <si>
-    <t>8.7-8.13, SSG20</t>
-  </si>
-  <si>
-    <t>Ch 9; 14.1-14.2; SSG21</t>
-  </si>
-  <si>
-    <t>14.4; SSG22</t>
-  </si>
-  <si>
     <t>reading and writing files</t>
   </si>
   <si>
     <t>CSV files; directory structure</t>
   </si>
   <si>
-    <t>10.10-10.15</t>
-  </si>
-  <si>
-    <t>10.1-10.6</t>
-  </si>
-  <si>
     <t>lists: basics, traversal, methods</t>
   </si>
   <si>
@@ -617,22 +569,10 @@
     <t>objects and references</t>
   </si>
   <si>
-    <t>10.7-10.9; review SSG20</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2-11.4</t>
-  </si>
-  <si>
     <t>dictionary iteration and reverse lookup</t>
   </si>
   <si>
     <t>lists in dictionaries; memos</t>
-  </si>
-  <si>
-    <t>11.5, 11.6, 11.8</t>
   </si>
   <si>
     <t>dictionary basics</t>
@@ -660,9 +600,6 @@
   </si>
   <si>
     <t>Social/Ethical III: Computing &amp; The Greater Good (including open-source software)</t>
-  </si>
-  <si>
-    <t>3.3-3.8; SSG2</t>
   </si>
   <si>
     <r>
@@ -693,11 +630,65 @@
     <t>SSG13-14</t>
   </si>
   <si>
-    <t>4.4-4.10
+    <t>SSG16</t>
+  </si>
+  <si>
+    <t>3.3-3.5; SSG2</t>
+  </si>
+  <si>
+    <t>3.6-3.12 (and review 3.1-3.5)</t>
+  </si>
+  <si>
+    <t>4.3-4.9
 SSG15</t>
   </si>
   <si>
-    <t>SSG16</t>
+    <t>6.5-6.10</t>
+  </si>
+  <si>
+    <t>return values</t>
+  </si>
+  <si>
+    <t>recursion with return values</t>
+  </si>
+  <si>
+    <t>the IDLE debugger; stack diagrams; functions with return values</t>
+  </si>
+  <si>
+    <t>7.5-7.7</t>
+  </si>
+  <si>
+    <t>1.7, 2.9, 3.9, 4.9, 5.12, 6.10, 7.7</t>
+  </si>
+  <si>
+    <t>8.1-8.5, SSG19</t>
+  </si>
+  <si>
+    <t>SSG20</t>
+  </si>
+  <si>
+    <t>8.6; 13.1-13.2; SSG21</t>
+  </si>
+  <si>
+    <t>SSG22</t>
+  </si>
+  <si>
+    <t>9.1-9.7</t>
+  </si>
+  <si>
+    <t>9.9-9.13</t>
+  </si>
+  <si>
+    <t>9.8; review SSG20; SSG23</t>
+  </si>
+  <si>
+    <t>10.1-10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6-10.9</t>
   </si>
 </sst>
 </file>
@@ -1015,6 +1006,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1027,59 +1069,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,10 +1355,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,28 +1382,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="9"/>
     </row>
@@ -1429,8 +1420,8 @@
       <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>50</v>
+      <c r="E2" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>38</v>
@@ -1452,15 +1443,15 @@
         <f t="shared" ref="D3:D22" si="0">D2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" s="12"/>
     </row>
@@ -1477,7 +1468,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
         <v>40</v>
       </c>
@@ -1503,18 +1494,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>84</v>
+      <c r="E5" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1531,18 +1522,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -1559,12 +1550,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
@@ -1585,20 +1576,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>85</v>
+      <c r="E8" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
@@ -1614,20 +1605,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -1643,16 +1634,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
@@ -1672,17 +1663,17 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="12" t="str">
         <f>B9</f>
@@ -1696,20 +1687,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>87</v>
+      <c r="E12" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1726,12 +1717,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
@@ -1754,14 +1745,14 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1778,20 +1769,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>86</v>
+      <c r="E15" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1808,12 +1799,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
@@ -1836,14 +1827,14 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1886,7 +1877,7 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="14"/>
@@ -1908,8 +1899,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>88</v>
+      <c r="E20" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>47</v>
@@ -1919,7 +1910,7 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1936,19 +1927,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="14" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="12" t="str">
         <f t="shared" ref="B22" si="5">B19</f>
@@ -1962,12 +1953,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="14" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="12"/>
@@ -1976,16 +1967,16 @@
       <c r="A23" s="27">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
@@ -2001,15 +1992,15 @@
         <f>D22+1</f>
         <v>22</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="12"/>
     </row>
@@ -2027,18 +2018,18 @@
         <f t="shared" ref="D25:D38" si="7">D24+1</f>
         <v>23</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>90</v>
+      <c r="E25" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2057,12 +2048,12 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
@@ -2081,18 +2072,18 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,21 +2100,21 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>91</v>
+      <c r="E28" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>10</v>
       </c>
@@ -2139,12 +2130,12 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="12"/>
@@ -2163,15 +2154,15 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="12"/>
     </row>
@@ -2189,18 +2180,18 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>92</v>
+      <c r="E31" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2219,12 +2210,12 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="E32" s="32"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="12"/>
@@ -2243,20 +2234,20 @@
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>93</v>
+      <c r="E33" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2273,16 +2264,16 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,12 +2292,12 @@
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="12"/>
@@ -2331,10 +2322,10 @@
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="14" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,7 +2344,7 @@
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="14"/>
@@ -2375,43 +2366,43 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>94</v>
+      <c r="E38" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
@@ -2429,12 +2420,12 @@
         <f>D38+1</f>
         <v>37</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
@@ -2453,15 +2444,15 @@
         <f>D41+1</f>
         <v>38</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" s="12"/>
     </row>
@@ -2479,16 +2470,16 @@
         <f>D42+1</f>
         <v>39</v>
       </c>
-      <c r="E43" s="29" t="s">
-        <v>95</v>
+      <c r="E43" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,9 +2498,9 @@
         <f>D43+1</f>
         <v>40</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="42" t="s">
-        <v>117</v>
+      <c r="E44" s="23"/>
+      <c r="F44" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="14"/>
@@ -2529,11 +2520,11 @@
         <f>D44+1</f>
         <v>41</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="43"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="15"/>
       <c r="H45" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I45" s="22"/>
     </row>
@@ -2551,12 +2542,12 @@
         <f>D45+1</f>
         <v>42</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="44"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="15"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,40 +2555,22 @@
         <v>16</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C47" s="13">
         <v>46007</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
+      <c r="D47" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="15"/>
       <c r="H47" s="14"/>
       <c r="I47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F39:I40"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F44:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="A38:A40"/>
@@ -2614,6 +2587,24 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F39:I40"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
